--- a/dawood_git_hub.xlsx
+++ b/dawood_git_hub.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TDbrothers\Documents\dawood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TDbrothers\Desktop\class\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Sum of age</t>
+  </si>
+  <si>
+    <t>faiza faiza</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[dawoodwxcel.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[dawood_git_hub.xlsx]Sheet1!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3345,7 +3348,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="F12:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -3815,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3937,7 +3940,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="G13" t="s">
         <v>5</v>

--- a/dawood_git_hub.xlsx
+++ b/dawood_git_hub.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>faiza faiza</t>
+  </si>
+  <si>
+    <t>faiza faiza faiza</t>
   </si>
 </sst>
 </file>
@@ -3348,7 +3351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="F12:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -3819,7 +3822,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,7 +3979,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="F14" t="s">
         <v>15</v>

--- a/dawood_git_hub.xlsx
+++ b/dawood_git_hub.xlsx
@@ -3351,7 +3351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="F12:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">

--- a/dawood_git_hub.xlsx
+++ b/dawood_git_hub.xlsx
@@ -3351,7 +3351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="F12:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">

--- a/dawood_git_hub.xlsx
+++ b/dawood_git_hub.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>faiza faiza faiza</t>
+  </si>
+  <si>
+    <t>faiza faiza faizafaiza faiza faiza</t>
   </si>
 </sst>
 </file>
@@ -3351,7 +3354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="F12:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -3822,7 +3825,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,7 +4021,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">

--- a/dawood_git_hub.xlsx
+++ b/dawood_git_hub.xlsx
@@ -80,7 +80,7 @@
     <t>faiza faiza</t>
   </si>
   <si>
-    <t>faiza faiza faiza</t>
+    <t>faiza faiza faizafaiza faiza faiza</t>
   </si>
 </sst>
 </file>
@@ -3351,7 +3351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
   <location ref="F12:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">

--- a/dawood_git_hub.xlsx
+++ b/dawood_git_hub.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>faiza faiza</t>
+  </si>
+  <si>
+    <t>faiza rizwan</t>
   </si>
 </sst>
 </file>
@@ -3348,7 +3351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="F12:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -3818,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,7 +3979,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="F14" t="s">
         <v>15</v>

--- a/dawood_git_hub.xlsx
+++ b/dawood_git_hub.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>faiza faiza faizafaiza faiza faiza</t>
+  </si>
+  <si>
+    <t>faiza rizwan</t>
   </si>
 </sst>
 </file>
@@ -3351,7 +3354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="31">
   <location ref="F12:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -3822,7 +3825,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4022,7 +4025,9 @@
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
